--- a/13-12-17/zadanie5.xlsx
+++ b/13-12-17/zadanie5.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a)</t>
   </si>
@@ -63,25 +63,28 @@
     <t>d)</t>
   </si>
   <si>
-    <t>50'</t>
-  </si>
-  <si>
-    <t>60'</t>
-  </si>
-  <si>
-    <t>70'</t>
-  </si>
-  <si>
-    <t>80'</t>
-  </si>
-  <si>
-    <t>90'</t>
-  </si>
-  <si>
     <t>kolumna S</t>
   </si>
   <si>
     <t>e)</t>
+  </si>
+  <si>
+    <t>ponizej wykres</t>
+  </si>
+  <si>
+    <t>Lata 50'</t>
+  </si>
+  <si>
+    <t>Lata 60'</t>
+  </si>
+  <si>
+    <t>Lata 70'</t>
+  </si>
+  <si>
+    <t>Lata 80'</t>
+  </si>
+  <si>
+    <t>Lata 90'</t>
   </si>
 </sst>
 </file>
@@ -195,19 +198,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50'</c:v>
+                  <c:v>Lata 50'</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60'</c:v>
+                  <c:v>Lata 60'</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70'</c:v>
+                  <c:v>Lata 70'</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80'</c:v>
+                  <c:v>Lata 80'</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90'</c:v>
+                  <c:v>Lata 90'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,7 +602,7 @@
   <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +614,7 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -652,9 +655,9 @@
         <f>IF(AND(C1=1,D1=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M1">
-        <f>IF(MOD(J1,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M1" t="str">
+        <f>IF(ISEVEN(J1),"K","M")</f>
+        <v>K</v>
       </c>
       <c r="N1">
         <f>A1*10+B1</f>
@@ -681,13 +684,13 @@
       </c>
       <c r="T1" t="str">
         <f>VLOOKUP(N1,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="V1">
         <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X1">
         <f>COUNTIF($T$1:$T$150,W1)</f>
@@ -746,12 +749,12 @@
         <f>IF(AND(C2=1,D2=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M2">
-        <f>IF(MOD(J2,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M65" si="0">IF(ISEVEN(J2),"K","M")</f>
+        <v>K</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N65" si="0">A2*10+B2</f>
+        <f t="shared" ref="N2:N65" si="1">A2*10+B2</f>
         <v>88</v>
       </c>
       <c r="O2">
@@ -775,28 +778,28 @@
       </c>
       <c r="T2" t="str">
         <f>VLOOKUP(N2,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="V2">
         <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X5" si="1">COUNTIF($T$1:$T$150,W2)</f>
+        <f t="shared" ref="X2:X5" si="2">COUNTIF($T$1:$T$150,W2)</f>
         <v>28</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y5" si="2">X2/$X$6</f>
+        <f t="shared" ref="Y2:Y5" si="3">X2/$X$6</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
       <c r="AA2">
-        <f>SUM(M1:M150)</f>
-        <v>76</v>
+        <f>COUNTIF(M1:M150,"K")</f>
+        <v>74</v>
       </c>
       <c r="AB2">
         <v>3</v>
@@ -840,12 +843,12 @@
         <f>IF(AND(C3=1,D3=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M3">
-        <f>IF(MOD(J3,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="O3">
@@ -869,20 +872,20 @@
       </c>
       <c r="T3" t="str">
         <f>VLOOKUP(N3,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="V3">
         <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
       <c r="Z3" t="s">
@@ -934,12 +937,12 @@
         <f>IF(AND(C4=1,D4=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M4">
-        <f>IF(MOD(J4,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O4">
@@ -963,27 +966,27 @@
       </c>
       <c r="T4" t="str">
         <f>VLOOKUP(N4,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="V4">
         <v>80</v>
       </c>
       <c r="W4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38666666666666666</v>
       </c>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB4">
         <v>9</v>
@@ -1027,12 +1030,12 @@
         <f>IF(AND(C5=1,D5=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M5">
-        <f>IF(MOD(J5,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O5">
@@ -1056,24 +1059,27 @@
       </c>
       <c r="T5" t="str">
         <f>VLOOKUP(N5,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="V5">
         <v>90</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
       <c r="Z5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -1117,12 +1123,12 @@
         <f>IF(AND(C6=1,D6=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f>IF(MOD(J6,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="O6">
@@ -1146,7 +1152,7 @@
       </c>
       <c r="T6" t="str">
         <f>VLOOKUP(N6,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
       <c r="X6">
         <f>SUM(X1:X5)</f>
@@ -1194,12 +1200,12 @@
         <f>IF(AND(C7=1,D7=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M7">
-        <f>IF(MOD(J7,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O7">
@@ -1223,7 +1229,7 @@
       </c>
       <c r="T7" t="str">
         <f>VLOOKUP(N7,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="AB7">
         <v>7</v>
@@ -1267,12 +1273,12 @@
         <f>IF(AND(C8=1,D8=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M8">
-        <f>IF(MOD(J8,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O8">
@@ -1296,7 +1302,7 @@
       </c>
       <c r="T8" t="str">
         <f>VLOOKUP(N8,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
       <c r="AB8">
         <v>9</v>
@@ -1340,12 +1346,12 @@
         <f>IF(AND(C9=1,D9=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M9">
-        <f>IF(MOD(J9,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="O9">
@@ -1369,7 +1375,7 @@
       </c>
       <c r="T9" t="str">
         <f>VLOOKUP(N9,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
       <c r="AB9">
         <v>1</v>
@@ -1413,12 +1419,12 @@
         <f>IF(AND(C10=1,D10=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M10">
-        <f>IF(MOD(J10,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="O10">
@@ -1442,7 +1448,7 @@
       </c>
       <c r="T10" t="str">
         <f>VLOOKUP(N10,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
       <c r="AB10">
         <v>3</v>
@@ -1486,12 +1492,12 @@
         <f>IF(AND(C11=1,D11=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M11">
-        <f>IF(MOD(J11,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="O11">
@@ -1515,7 +1521,7 @@
       </c>
       <c r="T11" t="str">
         <f>VLOOKUP(N11,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1556,12 +1562,12 @@
         <f>IF(AND(C12=1,D12=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M12">
-        <f>IF(MOD(J12,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O12">
@@ -1585,7 +1591,7 @@
       </c>
       <c r="T12" t="str">
         <f>VLOOKUP(N12,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1626,12 +1632,12 @@
         <f>IF(AND(C13=1,D13=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M13">
-        <f>IF(MOD(J13,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="O13">
@@ -1655,7 +1661,7 @@
       </c>
       <c r="T13" t="str">
         <f>VLOOKUP(N13,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1696,12 +1702,12 @@
         <f>IF(AND(C14=1,D14=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M14">
-        <f>IF(MOD(J14,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O14">
@@ -1725,7 +1731,7 @@
       </c>
       <c r="T14" t="str">
         <f>VLOOKUP(N14,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -1766,12 +1772,12 @@
         <f>IF(AND(C15=1,D15=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M15">
-        <f>IF(MOD(J15,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O15">
@@ -1795,7 +1801,7 @@
       </c>
       <c r="T15" t="str">
         <f>VLOOKUP(N15,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -1836,12 +1842,12 @@
         <f>IF(AND(C16=1,D16=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M16">
-        <f>IF(MOD(J16,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="O16">
@@ -1865,7 +1871,7 @@
       </c>
       <c r="T16" t="str">
         <f>VLOOKUP(N16,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1906,12 +1912,12 @@
         <f>IF(AND(C17=1,D17=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M17">
-        <f>IF(MOD(J17,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O17">
@@ -1935,7 +1941,7 @@
       </c>
       <c r="T17" t="str">
         <f>VLOOKUP(N17,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1976,12 +1982,12 @@
         <f>IF(AND(C18=1,D18=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M18">
-        <f>IF(MOD(J18,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="O18">
@@ -2005,7 +2011,7 @@
       </c>
       <c r="T18" t="str">
         <f>VLOOKUP(N18,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2046,12 +2052,12 @@
         <f>IF(AND(C19=1,D19=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M19">
-        <f>IF(MOD(J19,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="O19">
@@ -2075,7 +2081,7 @@
       </c>
       <c r="T19" t="str">
         <f>VLOOKUP(N19,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2116,12 +2122,12 @@
         <f>IF(AND(C20=1,D20=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M20">
-        <f>IF(MOD(J20,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="O20">
@@ -2145,7 +2151,7 @@
       </c>
       <c r="T20" t="str">
         <f>VLOOKUP(N20,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2186,12 +2192,12 @@
         <f>IF(AND(C21=1,D21=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M21">
-        <f>IF(MOD(J21,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O21">
@@ -2215,7 +2221,7 @@
       </c>
       <c r="T21" t="str">
         <f>VLOOKUP(N21,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2256,12 +2262,12 @@
         <f>IF(AND(C22=1,D22=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M22">
-        <f>IF(MOD(J22,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O22">
@@ -2285,7 +2291,7 @@
       </c>
       <c r="T22" t="str">
         <f>VLOOKUP(N22,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2326,12 +2332,12 @@
         <f>IF(AND(C23=1,D23=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M23">
-        <f>IF(MOD(J23,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="O23">
@@ -2355,7 +2361,7 @@
       </c>
       <c r="T23" t="str">
         <f>VLOOKUP(N23,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2396,12 +2402,12 @@
         <f>IF(AND(C24=1,D24=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M24">
-        <f>IF(MOD(J24,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="O24">
@@ -2425,7 +2431,7 @@
       </c>
       <c r="T24" t="str">
         <f>VLOOKUP(N24,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2466,12 +2472,12 @@
         <f>IF(AND(C25=1,D25=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M25">
-        <f>IF(MOD(J25,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="O25">
@@ -2495,7 +2501,7 @@
       </c>
       <c r="T25" t="str">
         <f>VLOOKUP(N25,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2536,12 +2542,12 @@
         <f>IF(AND(C26=1,D26=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M26">
-        <f>IF(MOD(J26,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="O26">
@@ -2565,7 +2571,7 @@
       </c>
       <c r="T26" t="str">
         <f>VLOOKUP(N26,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2606,12 +2612,12 @@
         <f>IF(AND(C27=1,D27=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M27">
-        <f>IF(MOD(J27,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="O27">
@@ -2635,7 +2641,7 @@
       </c>
       <c r="T27" t="str">
         <f>VLOOKUP(N27,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2676,12 +2682,12 @@
         <f>IF(AND(C28=1,D28=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M28">
-        <f>IF(MOD(J28,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="O28">
@@ -2705,7 +2711,7 @@
       </c>
       <c r="T28" t="str">
         <f>VLOOKUP(N28,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2746,12 +2752,12 @@
         <f>IF(AND(C29=1,D29=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M29">
-        <f>IF(MOD(J29,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="O29">
@@ -2775,7 +2781,7 @@
       </c>
       <c r="T29" t="str">
         <f>VLOOKUP(N29,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2816,12 +2822,12 @@
         <f>IF(AND(C30=1,D30=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M30">
-        <f>IF(MOD(J30,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="O30">
@@ -2845,7 +2851,7 @@
       </c>
       <c r="T30" t="str">
         <f>VLOOKUP(N30,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2886,12 +2892,12 @@
         <f>IF(AND(C31=1,D31=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M31">
-        <f>IF(MOD(J31,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="O31">
@@ -2915,7 +2921,7 @@
       </c>
       <c r="T31" t="str">
         <f>VLOOKUP(N31,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2956,12 +2962,12 @@
         <f>IF(AND(C32=1,D32=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M32">
-        <f>IF(MOD(J32,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="O32">
@@ -2985,7 +2991,7 @@
       </c>
       <c r="T32" t="str">
         <f>VLOOKUP(N32,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3026,12 +3032,12 @@
         <f>IF(AND(C33=1,D33=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M33">
-        <f>IF(MOD(J33,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="O33">
@@ -3055,7 +3061,7 @@
       </c>
       <c r="T33" t="str">
         <f>VLOOKUP(N33,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3096,12 +3102,12 @@
         <f>IF(AND(C34=1,D34=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M34">
-        <f>IF(MOD(J34,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="O34">
@@ -3125,7 +3131,7 @@
       </c>
       <c r="T34" t="str">
         <f>VLOOKUP(N34,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3166,12 +3172,12 @@
         <f>IF(AND(C35=1,D35=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M35">
-        <f>IF(MOD(J35,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O35">
@@ -3195,7 +3201,7 @@
       </c>
       <c r="T35" t="str">
         <f>VLOOKUP(N35,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3236,12 +3242,12 @@
         <f>IF(AND(C36=1,D36=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M36">
-        <f>IF(MOD(J36,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="O36">
@@ -3265,7 +3271,7 @@
       </c>
       <c r="T36" t="str">
         <f>VLOOKUP(N36,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3306,12 +3312,12 @@
         <f>IF(AND(C37=1,D37=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M37">
-        <f>IF(MOD(J37,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="O37">
@@ -3335,7 +3341,7 @@
       </c>
       <c r="T37" t="str">
         <f>VLOOKUP(N37,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3376,12 +3382,12 @@
         <f>IF(AND(C38=1,D38=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M38">
-        <f>IF(MOD(J38,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="O38">
@@ -3405,7 +3411,7 @@
       </c>
       <c r="T38" t="str">
         <f>VLOOKUP(N38,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3446,12 +3452,12 @@
         <f>IF(AND(C39=1,D39=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M39">
-        <f>IF(MOD(J39,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="O39">
@@ -3475,7 +3481,7 @@
       </c>
       <c r="T39" t="str">
         <f>VLOOKUP(N39,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3516,12 +3522,12 @@
         <f>IF(AND(C40=1,D40=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M40">
-        <f>IF(MOD(J40,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="O40">
@@ -3545,7 +3551,7 @@
       </c>
       <c r="T40" t="str">
         <f>VLOOKUP(N40,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3586,12 +3592,12 @@
         <f>IF(AND(C41=1,D41=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M41">
-        <f>IF(MOD(J41,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="O41">
@@ -3615,7 +3621,7 @@
       </c>
       <c r="T41" t="str">
         <f>VLOOKUP(N41,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3656,12 +3662,12 @@
         <f>IF(AND(C42=1,D42=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M42">
-        <f>IF(MOD(J42,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="O42">
@@ -3685,7 +3691,7 @@
       </c>
       <c r="T42" t="str">
         <f>VLOOKUP(N42,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3726,12 +3732,12 @@
         <f>IF(AND(C43=1,D43=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M43">
-        <f>IF(MOD(J43,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="O43">
@@ -3755,7 +3761,7 @@
       </c>
       <c r="T43" t="str">
         <f>VLOOKUP(N43,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3796,12 +3802,12 @@
         <f>IF(AND(C44=1,D44=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M44">
-        <f>IF(MOD(J44,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="O44">
@@ -3825,7 +3831,7 @@
       </c>
       <c r="T44" t="str">
         <f>VLOOKUP(N44,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3866,12 +3872,12 @@
         <f>IF(AND(C45=1,D45=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M45">
-        <f>IF(MOD(J45,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="O45">
@@ -3895,7 +3901,7 @@
       </c>
       <c r="T45" t="str">
         <f>VLOOKUP(N45,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3936,12 +3942,12 @@
         <f>IF(AND(C46=1,D46=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M46">
-        <f>IF(MOD(J46,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="O46">
@@ -3965,7 +3971,7 @@
       </c>
       <c r="T46" t="str">
         <f>VLOOKUP(N46,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4006,12 +4012,12 @@
         <f>IF(AND(C47=1,D47=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M47">
-        <f>IF(MOD(J47,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="O47">
@@ -4035,7 +4041,7 @@
       </c>
       <c r="T47" t="str">
         <f>VLOOKUP(N47,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4076,12 +4082,12 @@
         <f>IF(AND(C48=1,D48=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M48">
-        <f>IF(MOD(J48,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="O48">
@@ -4105,7 +4111,7 @@
       </c>
       <c r="T48" t="str">
         <f>VLOOKUP(N48,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4146,12 +4152,12 @@
         <f>IF(AND(C49=1,D49=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M49">
-        <f>IF(MOD(J49,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="O49">
@@ -4175,7 +4181,7 @@
       </c>
       <c r="T49" t="str">
         <f>VLOOKUP(N49,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4216,12 +4222,12 @@
         <f>IF(AND(C50=1,D50=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M50">
-        <f>IF(MOD(J50,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="O50">
@@ -4245,7 +4251,7 @@
       </c>
       <c r="T50" t="str">
         <f>VLOOKUP(N50,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4286,12 +4292,12 @@
         <f>IF(AND(C51=1,D51=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M51">
-        <f>IF(MOD(J51,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="O51">
@@ -4315,7 +4321,7 @@
       </c>
       <c r="T51" t="str">
         <f>VLOOKUP(N51,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4356,12 +4362,12 @@
         <f>IF(AND(C52=1,D52=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M52">
-        <f>IF(MOD(J52,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="O52">
@@ -4385,7 +4391,7 @@
       </c>
       <c r="T52" t="str">
         <f>VLOOKUP(N52,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4426,12 +4432,12 @@
         <f>IF(AND(C53=1,D53=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M53">
-        <f>IF(MOD(J53,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="O53">
@@ -4455,7 +4461,7 @@
       </c>
       <c r="T53" t="str">
         <f>VLOOKUP(N53,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4496,12 +4502,12 @@
         <f>IF(AND(C54=1,D54=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M54">
-        <f>IF(MOD(J54,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="O54">
@@ -4525,7 +4531,7 @@
       </c>
       <c r="T54" t="str">
         <f>VLOOKUP(N54,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4566,12 +4572,12 @@
         <f>IF(AND(C55=1,D55=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M55">
-        <f>IF(MOD(J55,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="O55">
@@ -4595,7 +4601,7 @@
       </c>
       <c r="T55" t="str">
         <f>VLOOKUP(N55,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4636,12 +4642,12 @@
         <f>IF(AND(C56=1,D56=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M56">
-        <f>IF(MOD(J56,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="O56">
@@ -4665,7 +4671,7 @@
       </c>
       <c r="T56" t="str">
         <f>VLOOKUP(N56,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4706,12 +4712,12 @@
         <f>IF(AND(C57=1,D57=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M57">
-        <f>IF(MOD(J57,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="O57">
@@ -4735,7 +4741,7 @@
       </c>
       <c r="T57" t="str">
         <f>VLOOKUP(N57,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4776,12 +4782,12 @@
         <f>IF(AND(C58=1,D58=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M58">
-        <f>IF(MOD(J58,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M58" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="O58">
@@ -4805,7 +4811,7 @@
       </c>
       <c r="T58" t="str">
         <f>VLOOKUP(N58,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4846,12 +4852,12 @@
         <f>IF(AND(C59=1,D59=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M59">
-        <f>IF(MOD(J59,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M59" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="O59">
@@ -4875,7 +4881,7 @@
       </c>
       <c r="T59" t="str">
         <f>VLOOKUP(N59,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4916,12 +4922,12 @@
         <f>IF(AND(C60=1,D60=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M60">
-        <f>IF(MOD(J60,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="O60">
@@ -4945,7 +4951,7 @@
       </c>
       <c r="T60" t="str">
         <f>VLOOKUP(N60,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4986,12 +4992,12 @@
         <f>IF(AND(C61=1,D61=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M61">
-        <f>IF(MOD(J61,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M61" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="O61">
@@ -5015,7 +5021,7 @@
       </c>
       <c r="T61" t="str">
         <f>VLOOKUP(N61,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5056,12 +5062,12 @@
         <f>IF(AND(C62=1,D62=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M62">
-        <f>IF(MOD(J62,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M62" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="O62">
@@ -5085,7 +5091,7 @@
       </c>
       <c r="T62" t="str">
         <f>VLOOKUP(N62,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5126,12 +5132,12 @@
         <f>IF(AND(C63=1,D63=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M63">
-        <f>IF(MOD(J63,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M63" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="O63">
@@ -5155,7 +5161,7 @@
       </c>
       <c r="T63" t="str">
         <f>VLOOKUP(N63,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5196,12 +5202,12 @@
         <f>IF(AND(C64=1,D64=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M64">
-        <f>IF(MOD(J64,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M64" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="O64">
@@ -5225,7 +5231,7 @@
       </c>
       <c r="T64" t="str">
         <f>VLOOKUP(N64,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5266,12 +5272,12 @@
         <f>IF(AND(C65=1,D65=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M65">
-        <f>IF(MOD(J65,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M65" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="O65">
@@ -5295,7 +5301,7 @@
       </c>
       <c r="T65" t="str">
         <f>VLOOKUP(N65,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5336,12 +5342,12 @@
         <f>IF(AND(C66=1,D66=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M66">
-        <f>IF(MOD(J66,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M129" si="4">IF(ISEVEN(J66),"K","M")</f>
+        <v>K</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N129" si="3">A66*10+B66</f>
+        <f t="shared" ref="N66:N129" si="5">A66*10+B66</f>
         <v>53</v>
       </c>
       <c r="O66">
@@ -5365,7 +5371,7 @@
       </c>
       <c r="T66" t="str">
         <f>VLOOKUP(N66,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5406,12 +5412,12 @@
         <f>IF(AND(C67=1,D67=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M67">
-        <f>IF(MOD(J67,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M67" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="O67">
@@ -5435,7 +5441,7 @@
       </c>
       <c r="T67" t="str">
         <f>VLOOKUP(N67,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5476,12 +5482,12 @@
         <f>IF(AND(C68=1,D68=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M68">
-        <f>IF(MOD(J68,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M68" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="O68">
@@ -5505,7 +5511,7 @@
       </c>
       <c r="T68" t="str">
         <f>VLOOKUP(N68,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5546,12 +5552,12 @@
         <f>IF(AND(C69=1,D69=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M69">
-        <f>IF(MOD(J69,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M69" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="O69">
@@ -5575,7 +5581,7 @@
       </c>
       <c r="T69" t="str">
         <f>VLOOKUP(N69,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5616,12 +5622,12 @@
         <f>IF(AND(C70=1,D70=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M70">
-        <f>IF(MOD(J70,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M70" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O70">
@@ -5645,7 +5651,7 @@
       </c>
       <c r="T70" t="str">
         <f>VLOOKUP(N70,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5686,12 +5692,12 @@
         <f>IF(AND(C71=1,D71=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M71">
-        <f>IF(MOD(J71,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M71" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="O71">
@@ -5715,7 +5721,7 @@
       </c>
       <c r="T71" t="str">
         <f>VLOOKUP(N71,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5756,12 +5762,12 @@
         <f>IF(AND(C72=1,D72=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M72">
-        <f>IF(MOD(J72,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M72" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="O72">
@@ -5785,7 +5791,7 @@
       </c>
       <c r="T72" t="str">
         <f>VLOOKUP(N72,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5826,12 +5832,12 @@
         <f>IF(AND(C73=1,D73=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M73">
-        <f>IF(MOD(J73,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M73" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O73">
@@ -5855,7 +5861,7 @@
       </c>
       <c r="T73" t="str">
         <f>VLOOKUP(N73,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5896,12 +5902,12 @@
         <f>IF(AND(C74=1,D74=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M74">
-        <f>IF(MOD(J74,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M74" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="O74">
@@ -5925,7 +5931,7 @@
       </c>
       <c r="T74" t="str">
         <f>VLOOKUP(N74,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -5966,12 +5972,12 @@
         <f>IF(AND(C75=1,D75=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M75">
-        <f>IF(MOD(J75,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M75" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="O75">
@@ -5995,7 +6001,7 @@
       </c>
       <c r="T75" t="str">
         <f>VLOOKUP(N75,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6036,12 +6042,12 @@
         <f>IF(AND(C76=1,D76=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M76">
-        <f>IF(MOD(J76,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M76" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="O76">
@@ -6065,7 +6071,7 @@
       </c>
       <c r="T76" t="str">
         <f>VLOOKUP(N76,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -6106,12 +6112,12 @@
         <f>IF(AND(C77=1,D77=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M77">
-        <f>IF(MOD(J77,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M77" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="O77">
@@ -6135,7 +6141,7 @@
       </c>
       <c r="T77" t="str">
         <f>VLOOKUP(N77,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6176,12 +6182,12 @@
         <f>IF(AND(C78=1,D78=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M78">
-        <f>IF(MOD(J78,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M78" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="O78">
@@ -6205,7 +6211,7 @@
       </c>
       <c r="T78" t="str">
         <f>VLOOKUP(N78,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6246,12 +6252,12 @@
         <f>IF(AND(C79=1,D79=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M79">
-        <f>IF(MOD(J79,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M79" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="O79">
@@ -6275,7 +6281,7 @@
       </c>
       <c r="T79" t="str">
         <f>VLOOKUP(N79,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -6316,12 +6322,12 @@
         <f>IF(AND(C80=1,D80=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M80">
-        <f>IF(MOD(J80,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M80" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="O80">
@@ -6345,7 +6351,7 @@
       </c>
       <c r="T80" t="str">
         <f>VLOOKUP(N80,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -6386,12 +6392,12 @@
         <f>IF(AND(C81=1,D81=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M81">
-        <f>IF(MOD(J81,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M81" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="O81">
@@ -6415,7 +6421,7 @@
       </c>
       <c r="T81" t="str">
         <f>VLOOKUP(N81,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -6456,12 +6462,12 @@
         <f>IF(AND(C82=1,D82=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M82">
-        <f>IF(MOD(J82,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M82" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O82">
@@ -6485,7 +6491,7 @@
       </c>
       <c r="T82" t="str">
         <f>VLOOKUP(N82,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -6526,12 +6532,12 @@
         <f>IF(AND(C83=1,D83=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M83">
-        <f>IF(MOD(J83,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M83" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="O83">
@@ -6555,7 +6561,7 @@
       </c>
       <c r="T83" t="str">
         <f>VLOOKUP(N83,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -6596,12 +6602,12 @@
         <f>IF(AND(C84=1,D84=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M84">
-        <f>IF(MOD(J84,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M84" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O84">
@@ -6625,7 +6631,7 @@
       </c>
       <c r="T84" t="str">
         <f>VLOOKUP(N84,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -6666,12 +6672,12 @@
         <f>IF(AND(C85=1,D85=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M85">
-        <f>IF(MOD(J85,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M85" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="O85">
@@ -6695,7 +6701,7 @@
       </c>
       <c r="T85" t="str">
         <f>VLOOKUP(N85,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -6736,12 +6742,12 @@
         <f>IF(AND(C86=1,D86=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M86">
-        <f>IF(MOD(J86,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M86" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O86">
@@ -6765,7 +6771,7 @@
       </c>
       <c r="T86" t="str">
         <f>VLOOKUP(N86,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -6806,12 +6812,12 @@
         <f>IF(AND(C87=1,D87=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M87">
-        <f>IF(MOD(J87,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M87" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="O87">
@@ -6835,7 +6841,7 @@
       </c>
       <c r="T87" t="str">
         <f>VLOOKUP(N87,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6876,12 +6882,12 @@
         <f>IF(AND(C88=1,D88=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M88">
-        <f>IF(MOD(J88,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M88" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="O88">
@@ -6905,7 +6911,7 @@
       </c>
       <c r="T88" t="str">
         <f>VLOOKUP(N88,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -6946,12 +6952,12 @@
         <f>IF(AND(C89=1,D89=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M89">
-        <f>IF(MOD(J89,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M89" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O89">
@@ -6975,7 +6981,7 @@
       </c>
       <c r="T89" t="str">
         <f>VLOOKUP(N89,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -7016,12 +7022,12 @@
         <f>IF(AND(C90=1,D90=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M90">
-        <f>IF(MOD(J90,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M90" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="O90">
@@ -7045,7 +7051,7 @@
       </c>
       <c r="T90" t="str">
         <f>VLOOKUP(N90,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7086,12 +7092,12 @@
         <f>IF(AND(C91=1,D91=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M91">
-        <f>IF(MOD(J91,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M91" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="O91">
@@ -7115,7 +7121,7 @@
       </c>
       <c r="T91" t="str">
         <f>VLOOKUP(N91,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7156,12 +7162,12 @@
         <f>IF(AND(C92=1,D92=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M92">
-        <f>IF(MOD(J92,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M92" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="O92">
@@ -7185,7 +7191,7 @@
       </c>
       <c r="T92" t="str">
         <f>VLOOKUP(N92,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7226,12 +7232,12 @@
         <f>IF(AND(C93=1,D93=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M93">
-        <f>IF(MOD(J93,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M93" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="O93">
@@ -7255,7 +7261,7 @@
       </c>
       <c r="T93" t="str">
         <f>VLOOKUP(N93,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7296,12 +7302,12 @@
         <f>IF(AND(C94=1,D94=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M94">
-        <f>IF(MOD(J94,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M94" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O94">
@@ -7325,7 +7331,7 @@
       </c>
       <c r="T94" t="str">
         <f>VLOOKUP(N94,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7366,12 +7372,12 @@
         <f>IF(AND(C95=1,D95=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M95">
-        <f>IF(MOD(J95,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M95" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="O95">
@@ -7395,7 +7401,7 @@
       </c>
       <c r="T95" t="str">
         <f>VLOOKUP(N95,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -7436,12 +7442,12 @@
         <f>IF(AND(C96=1,D96=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M96">
-        <f>IF(MOD(J96,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M96" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="O96">
@@ -7465,7 +7471,7 @@
       </c>
       <c r="T96" t="str">
         <f>VLOOKUP(N96,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -7506,12 +7512,12 @@
         <f>IF(AND(C97=1,D97=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M97">
-        <f>IF(MOD(J97,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M97" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="O97">
@@ -7535,7 +7541,7 @@
       </c>
       <c r="T97" t="str">
         <f>VLOOKUP(N97,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7576,12 +7582,12 @@
         <f>IF(AND(C98=1,D98=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M98">
-        <f>IF(MOD(J98,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M98" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="O98">
@@ -7605,7 +7611,7 @@
       </c>
       <c r="T98" t="str">
         <f>VLOOKUP(N98,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7646,12 +7652,12 @@
         <f>IF(AND(C99=1,D99=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M99">
-        <f>IF(MOD(J99,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M99" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="O99">
@@ -7675,7 +7681,7 @@
       </c>
       <c r="T99" t="str">
         <f>VLOOKUP(N99,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7716,12 +7722,12 @@
         <f>IF(AND(C100=1,D100=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M100">
-        <f>IF(MOD(J100,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M100" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="O100">
@@ -7745,7 +7751,7 @@
       </c>
       <c r="T100" t="str">
         <f>VLOOKUP(N100,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7786,12 +7792,12 @@
         <f>IF(AND(C101=1,D101=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M101">
-        <f>IF(MOD(J101,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M101" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O101">
@@ -7815,7 +7821,7 @@
       </c>
       <c r="T101" t="str">
         <f>VLOOKUP(N101,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7856,12 +7862,12 @@
         <f>IF(AND(C102=1,D102=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M102">
-        <f>IF(MOD(J102,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M102" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O102">
@@ -7885,7 +7891,7 @@
       </c>
       <c r="T102" t="str">
         <f>VLOOKUP(N102,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7926,12 +7932,12 @@
         <f>IF(AND(C103=1,D103=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M103">
-        <f>IF(MOD(J103,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M103" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="O103">
@@ -7955,7 +7961,7 @@
       </c>
       <c r="T103" t="str">
         <f>VLOOKUP(N103,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7996,12 +8002,12 @@
         <f>IF(AND(C104=1,D104=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M104">
-        <f>IF(MOD(J104,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M104" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="O104">
@@ -8025,7 +8031,7 @@
       </c>
       <c r="T104" t="str">
         <f>VLOOKUP(N104,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -8066,12 +8072,12 @@
         <f>IF(AND(C105=1,D105=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M105">
-        <f>IF(MOD(J105,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M105" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="O105">
@@ -8095,7 +8101,7 @@
       </c>
       <c r="T105" t="str">
         <f>VLOOKUP(N105,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -8136,12 +8142,12 @@
         <f>IF(AND(C106=1,D106=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M106">
-        <f>IF(MOD(J106,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M106" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="O106">
@@ -8165,7 +8171,7 @@
       </c>
       <c r="T106" t="str">
         <f>VLOOKUP(N106,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -8206,12 +8212,12 @@
         <f>IF(AND(C107=1,D107=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M107">
-        <f>IF(MOD(J107,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M107" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="O107">
@@ -8235,7 +8241,7 @@
       </c>
       <c r="T107" t="str">
         <f>VLOOKUP(N107,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -8276,12 +8282,12 @@
         <f>IF(AND(C108=1,D108=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M108">
-        <f>IF(MOD(J108,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M108" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O108">
@@ -8305,7 +8311,7 @@
       </c>
       <c r="T108" t="str">
         <f>VLOOKUP(N108,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -8346,12 +8352,12 @@
         <f>IF(AND(C109=1,D109=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M109">
-        <f>IF(MOD(J109,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M109" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="O109">
@@ -8375,7 +8381,7 @@
       </c>
       <c r="T109" t="str">
         <f>VLOOKUP(N109,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -8416,12 +8422,12 @@
         <f>IF(AND(C110=1,D110=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M110">
-        <f>IF(MOD(J110,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M110" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="O110">
@@ -8445,7 +8451,7 @@
       </c>
       <c r="T110" t="str">
         <f>VLOOKUP(N110,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -8486,12 +8492,12 @@
         <f>IF(AND(C111=1,D111=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M111">
-        <f>IF(MOD(J111,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M111" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="O111">
@@ -8515,7 +8521,7 @@
       </c>
       <c r="T111" t="str">
         <f>VLOOKUP(N111,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -8556,12 +8562,12 @@
         <f>IF(AND(C112=1,D112=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M112">
-        <f>IF(MOD(J112,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M112" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O112">
@@ -8585,7 +8591,7 @@
       </c>
       <c r="T112" t="str">
         <f>VLOOKUP(N112,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -8626,12 +8632,12 @@
         <f>IF(AND(C113=1,D113=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M113">
-        <f>IF(MOD(J113,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M113" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O113">
@@ -8655,7 +8661,7 @@
       </c>
       <c r="T113" t="str">
         <f>VLOOKUP(N113,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -8696,12 +8702,12 @@
         <f>IF(AND(C114=1,D114=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M114">
-        <f>IF(MOD(J114,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M114" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="O114">
@@ -8725,7 +8731,7 @@
       </c>
       <c r="T114" t="str">
         <f>VLOOKUP(N114,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -8766,12 +8772,12 @@
         <f>IF(AND(C115=1,D115=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M115">
-        <f>IF(MOD(J115,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M115" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="O115">
@@ -8795,7 +8801,7 @@
       </c>
       <c r="T115" t="str">
         <f>VLOOKUP(N115,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -8836,12 +8842,12 @@
         <f>IF(AND(C116=1,D116=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M116">
-        <f>IF(MOD(J116,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M116" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O116">
@@ -8865,7 +8871,7 @@
       </c>
       <c r="T116" t="str">
         <f>VLOOKUP(N116,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -8906,12 +8912,12 @@
         <f>IF(AND(C117=1,D117=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M117">
-        <f>IF(MOD(J117,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M117" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="O117">
@@ -8935,7 +8941,7 @@
       </c>
       <c r="T117" t="str">
         <f>VLOOKUP(N117,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -8976,12 +8982,12 @@
         <f>IF(AND(C118=1,D118=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M118">
-        <f>IF(MOD(J118,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M118" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O118">
@@ -9005,7 +9011,7 @@
       </c>
       <c r="T118" t="str">
         <f>VLOOKUP(N118,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -9046,12 +9052,12 @@
         <f>IF(AND(C119=1,D119=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M119">
-        <f>IF(MOD(J119,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M119" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="O119">
@@ -9075,7 +9081,7 @@
       </c>
       <c r="T119" t="str">
         <f>VLOOKUP(N119,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -9116,12 +9122,12 @@
         <f>IF(AND(C120=1,D120=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M120">
-        <f>IF(MOD(J120,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M120" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="O120">
@@ -9145,7 +9151,7 @@
       </c>
       <c r="T120" t="str">
         <f>VLOOKUP(N120,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -9186,12 +9192,12 @@
         <f>IF(AND(C121=1,D121=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M121">
-        <f>IF(MOD(J121,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M121" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="O121">
@@ -9215,7 +9221,7 @@
       </c>
       <c r="T121" t="str">
         <f>VLOOKUP(N121,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -9256,12 +9262,12 @@
         <f>IF(AND(C122=1,D122=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M122">
-        <f>IF(MOD(J122,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M122" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="O122">
@@ -9285,7 +9291,7 @@
       </c>
       <c r="T122" t="str">
         <f>VLOOKUP(N122,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -9326,12 +9332,12 @@
         <f>IF(AND(C123=1,D123=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M123">
-        <f>IF(MOD(J123,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M123" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="O123">
@@ -9355,7 +9361,7 @@
       </c>
       <c r="T123" t="str">
         <f>VLOOKUP(N123,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -9396,12 +9402,12 @@
         <f>IF(AND(C124=1,D124=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M124">
-        <f>IF(MOD(J124,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M124" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O124">
@@ -9425,7 +9431,7 @@
       </c>
       <c r="T124" t="str">
         <f>VLOOKUP(N124,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -9466,12 +9472,12 @@
         <f>IF(AND(C125=1,D125=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M125">
-        <f>IF(MOD(J125,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M125" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="O125">
@@ -9495,7 +9501,7 @@
       </c>
       <c r="T125" t="str">
         <f>VLOOKUP(N125,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -9536,12 +9542,12 @@
         <f>IF(AND(C126=1,D126=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M126">
-        <f>IF(MOD(J126,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M126" t="str">
+        <f t="shared" si="4"/>
+        <v>K</v>
       </c>
       <c r="N126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="O126">
@@ -9565,7 +9571,7 @@
       </c>
       <c r="T126" t="str">
         <f>VLOOKUP(N126,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -9606,12 +9612,12 @@
         <f>IF(AND(C127=1,D127=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M127">
-        <f>IF(MOD(J127,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M127" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="O127">
@@ -9635,7 +9641,7 @@
       </c>
       <c r="T127" t="str">
         <f>VLOOKUP(N127,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -9676,12 +9682,12 @@
         <f>IF(AND(C128=1,D128=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M128">
-        <f>IF(MOD(J128,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M128" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="O128">
@@ -9705,7 +9711,7 @@
       </c>
       <c r="T128" t="str">
         <f>VLOOKUP(N128,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -9746,12 +9752,12 @@
         <f>IF(AND(C129=1,D129=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M129">
-        <f>IF(MOD(J129,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M129" t="str">
+        <f t="shared" si="4"/>
+        <v>M</v>
       </c>
       <c r="N129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="O129">
@@ -9775,7 +9781,7 @@
       </c>
       <c r="T129" t="str">
         <f>VLOOKUP(N129,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -9816,12 +9822,12 @@
         <f>IF(AND(C130=1,D130=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M130">
-        <f>IF(MOD(J130,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M130" t="str">
+        <f t="shared" ref="M130:M150" si="6">IF(ISEVEN(J130),"K","M")</f>
+        <v>M</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N149" si="4">A130*10+B130</f>
+        <f t="shared" ref="N130:N149" si="7">A130*10+B130</f>
         <v>70</v>
       </c>
       <c r="O130">
@@ -9845,7 +9851,7 @@
       </c>
       <c r="T130" t="str">
         <f>VLOOKUP(N130,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
@@ -9886,12 +9892,12 @@
         <f>IF(AND(C131=1,D131=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M131">
-        <f>IF(MOD(J131,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M131" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="O131">
@@ -9915,7 +9921,7 @@
       </c>
       <c r="T131" t="str">
         <f>VLOOKUP(N131,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -9956,12 +9962,12 @@
         <f>IF(AND(C132=1,D132=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M132">
-        <f>IF(MOD(J132,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M132" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="O132">
@@ -9985,7 +9991,7 @@
       </c>
       <c r="T132" t="str">
         <f>VLOOKUP(N132,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -10026,12 +10032,12 @@
         <f>IF(AND(C133=1,D133=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M133">
-        <f>IF(MOD(J133,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M133" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="O133">
@@ -10055,7 +10061,7 @@
       </c>
       <c r="T133" t="str">
         <f>VLOOKUP(N133,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -10096,12 +10102,12 @@
         <f>IF(AND(C134=1,D134=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M134">
-        <f>IF(MOD(J134,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M134" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="O134">
@@ -10125,7 +10131,7 @@
       </c>
       <c r="T134" t="str">
         <f>VLOOKUP(N134,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -10166,12 +10172,12 @@
         <f>IF(AND(C135=1,D135=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M135">
-        <f>IF(MOD(J135,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M135" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="O135">
@@ -10195,7 +10201,7 @@
       </c>
       <c r="T135" t="str">
         <f>VLOOKUP(N135,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -10236,12 +10242,12 @@
         <f>IF(AND(C136=1,D136=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M136">
-        <f>IF(MOD(J136,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M136" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="O136">
@@ -10265,7 +10271,7 @@
       </c>
       <c r="T136" t="str">
         <f>VLOOKUP(N136,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -10306,12 +10312,12 @@
         <f>IF(AND(C137=1,D137=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M137">
-        <f>IF(MOD(J137,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M137" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="O137">
@@ -10335,7 +10341,7 @@
       </c>
       <c r="T137" t="str">
         <f>VLOOKUP(N137,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -10376,12 +10382,12 @@
         <f>IF(AND(C138=1,D138=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M138">
-        <f>IF(MOD(J138,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M138" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="O138">
@@ -10405,7 +10411,7 @@
       </c>
       <c r="T138" t="str">
         <f>VLOOKUP(N138,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -10446,12 +10452,12 @@
         <f>IF(AND(C139=1,D139=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M139">
-        <f>IF(MOD(J139,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M139" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="O139">
@@ -10475,7 +10481,7 @@
       </c>
       <c r="T139" t="str">
         <f>VLOOKUP(N139,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -10516,12 +10522,12 @@
         <f>IF(AND(C140=1,D140=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M140">
-        <f>IF(MOD(J140,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M140" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="O140">
@@ -10545,7 +10551,7 @@
       </c>
       <c r="T140" t="str">
         <f>VLOOKUP(N140,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -10586,12 +10592,12 @@
         <f>IF(AND(C141=1,D141=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M141">
-        <f>IF(MOD(J141,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M141" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="O141">
@@ -10615,7 +10621,7 @@
       </c>
       <c r="T141" t="str">
         <f>VLOOKUP(N141,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -10656,12 +10662,12 @@
         <f>IF(AND(C142=1,D142=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M142">
-        <f>IF(MOD(J142,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M142" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="O142">
@@ -10685,7 +10691,7 @@
       </c>
       <c r="T142" t="str">
         <f>VLOOKUP(N142,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -10726,12 +10732,12 @@
         <f>IF(AND(C143=1,D143=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M143">
-        <f>IF(MOD(J143,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M143" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="O143">
@@ -10755,7 +10761,7 @@
       </c>
       <c r="T143" t="str">
         <f>VLOOKUP(N143,$V$1:$W$5,2,TRUE)</f>
-        <v>50'</v>
+        <v>Lata 50'</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -10796,12 +10802,12 @@
         <f>IF(AND(C144=1,D144=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M144">
-        <f>IF(MOD(J144,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M144" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="O144">
@@ -10825,7 +10831,7 @@
       </c>
       <c r="T144" t="str">
         <f>VLOOKUP(N144,$V$1:$W$5,2,TRUE)</f>
-        <v>60'</v>
+        <v>Lata 60'</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -10866,12 +10872,12 @@
         <f>IF(AND(C145=1,D145=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M145">
-        <f>IF(MOD(J145,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M145" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="O145">
@@ -10895,7 +10901,7 @@
       </c>
       <c r="T145" t="str">
         <f>VLOOKUP(N145,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -10936,12 +10942,12 @@
         <f>IF(AND(C146=1,D146=2),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M146">
-        <f>IF(MOD(J146,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M146" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="O146">
@@ -10965,7 +10971,7 @@
       </c>
       <c r="T146" t="str">
         <f>VLOOKUP(N146,$V$1:$W$5,2,TRUE)</f>
-        <v>70'</v>
+        <v>Lata 70'</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -11006,12 +11012,12 @@
         <f>IF(AND(C147=1,D147=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M147">
-        <f>IF(MOD(J147,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M147" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="O147">
@@ -11035,7 +11041,7 @@
       </c>
       <c r="T147" t="str">
         <f>VLOOKUP(N147,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -11076,12 +11082,12 @@
         <f>IF(AND(C148=1,D148=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M148">
-        <f>IF(MOD(J148,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M148" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="O148">
@@ -11105,7 +11111,7 @@
       </c>
       <c r="T148" t="str">
         <f>VLOOKUP(N148,$V$1:$W$5,2,TRUE)</f>
-        <v>80'</v>
+        <v>Lata 80'</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -11146,12 +11152,12 @@
         <f>IF(AND(C149=1,D149=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M149">
-        <f>IF(MOD(J149,2)=1,1,0)</f>
-        <v>1</v>
+      <c r="M149" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
       </c>
       <c r="N149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="O149">
@@ -11175,7 +11181,7 @@
       </c>
       <c r="T149" t="str">
         <f>VLOOKUP(N149,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -11216,9 +11222,9 @@
         <f>IF(AND(C150=1,D150=2),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M150">
-        <f>IF(MOD(J150,2)=1,1,0)</f>
-        <v>0</v>
+      <c r="M150" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
       </c>
       <c r="N150">
         <f>A150*10+B150</f>
@@ -11245,7 +11251,7 @@
       </c>
       <c r="T150" t="str">
         <f>VLOOKUP(N150,$V$1:$W$5,2,TRUE)</f>
-        <v>90'</v>
+        <v>Lata 90'</v>
       </c>
     </row>
   </sheetData>
@@ -11253,7 +11259,8 @@
     <sortCondition ref="S1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
